--- a/file.xlsx
+++ b/file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-suh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\stan\tg_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCB67B8-D228-4158-B844-547655F8F685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F48E91-898F-49B9-B588-784E79E49B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="1410" windowWidth="25905" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Март" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="252">
   <si>
     <t>Дата</t>
   </si>
@@ -1912,13 +1912,13 @@
   <dimension ref="A1:I992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
@@ -1964,6 +1964,15 @@
       <c r="A3" s="114">
         <v>45353</v>
       </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="114">
@@ -1983,11 +1992,29 @@
       <c r="A5" s="114">
         <v>45355</v>
       </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="114">
         <v>45356</v>
       </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="114">
@@ -2007,6 +2034,15 @@
       <c r="A8" s="114">
         <v>45358</v>
       </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="114">
@@ -2026,6 +2062,15 @@
       <c r="A10" s="114">
         <v>45360</v>
       </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="114">
@@ -2045,11 +2090,29 @@
       <c r="A12" s="114">
         <v>45362</v>
       </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="114">
         <v>45363</v>
       </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="114">
@@ -2069,6 +2132,15 @@
       <c r="A15" s="114">
         <v>45365</v>
       </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="114">
@@ -2088,6 +2160,15 @@
       <c r="A17" s="114">
         <v>45367</v>
       </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="114">
@@ -2107,11 +2188,29 @@
       <c r="A19" s="114">
         <v>45369</v>
       </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="114">
         <v>45370</v>
       </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="114">
@@ -2121,7 +2220,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>34</v>
@@ -2131,6 +2230,15 @@
       <c r="A22" s="114">
         <v>45372</v>
       </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="114">
@@ -2168,7 +2276,7 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -2178,11 +2286,29 @@
       <c r="A26" s="114">
         <v>45376</v>
       </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="114">
         <v>45377</v>
       </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="114">
@@ -2243,6 +2369,15 @@
     <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="114">
         <v>45382</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33" ht="12.75" x14ac:dyDescent="0.2"/>
